--- a/biology/Médecine/Artère_supra-scapulaire/Artère_supra-scapulaire.xlsx
+++ b/biology/Médecine/Artère_supra-scapulaire/Artère_supra-scapulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_supra-scapulaire</t>
+          <t>Artère_supra-scapulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère supra-scapulaire (ou artère sus-scapulaire ou artère scapulaire supérieure) est une artère du cou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_supra-scapulaire</t>
+          <t>Artère_supra-scapulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère supra-scapulaire nait du tronc thyro-cervical.
 Elle se dirige en avant et en dehors passant devant le muscle scalène antérieur, le nerf phrénique, l'artère subclavière et le plexus brachial
 Elle passe derrière le muscle sterno-cléido-mastoïdien, puis derrière la clavicule longeant le muscle subclavier et sous le ventre inférieur du muscle omo-hyoïdien.
-Elle atteint le bord supérieur de la scapula et passe au-dessus de l'incisure scapulaire et du ligament transverse supérieur de la scapula. Dans certains cas elle passe au-dessous du ligament [1].
-L'artère pénètre dans la fosse supra-épineuse sous le muscle supra-épineux qu'elle vascularise[1].
-Elle descend ensuite derrière le col de l'omoplate sous le ligament transverse inférieur de la scapula, pour atteindre la fosse infra-épineuse où elle irrigue le muscle infra-épineux[2] et s'anastomose avec l'artère circonflexe scapulaire et l'artère scapulaire dorsale.
+Elle atteint le bord supérieur de la scapula et passe au-dessus de l'incisure scapulaire et du ligament transverse supérieur de la scapula. Dans certains cas elle passe au-dessous du ligament .
+L'artère pénètre dans la fosse supra-épineuse sous le muscle supra-épineux qu'elle vascularise.
+Elle descend ensuite derrière le col de l'omoplate sous le ligament transverse inférieur de la scapula, pour atteindre la fosse infra-épineuse où elle irrigue le muscle infra-épineux et s'anastomose avec l'artère circonflexe scapulaire et l'artère scapulaire dorsale.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_supra-scapulaire</t>
+          <t>Artère_supra-scapulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Zone de vascularisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère supra-scapulaire contribue à la vascularisation des muscles sterno-cléido-mastoïdien, supra-épineux et infra-épineux.
 Au cours de son trajet elle fournit également une branche supra-sternale au niveau de l'extrémité sternale de la clavicule qui vascularise la peau de la partie supérieure de la poitrine.
